--- a/federal/federal_2005_2006.xlsx
+++ b/federal/federal_2005_2006.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.156</v>
+        <v>0.108</v>
       </c>
       <c r="B2">
-        <v>4.69</v>
+        <v>3.027</v>
       </c>
       <c r="C2">
-        <v>0.817</v>
+        <v>0.859</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.076</v>
+        <v>0.04</v>
       </c>
       <c r="B2">
-        <v>1.936</v>
+        <v>1.372</v>
       </c>
       <c r="C2">
-        <v>0.827</v>
+        <v>0.861</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.045</v>
+        <v>-0.054</v>
       </c>
       <c r="B2">
-        <v>0.398</v>
+        <v>0.392</v>
       </c>
       <c r="C2">
-        <v>9820.52</v>
+        <v>11983.85</v>
       </c>
       <c r="D2">
-        <v>0.134</v>
+        <v>0.104</v>
       </c>
     </row>
   </sheetData>
